--- a/csdata/O/SI/O2+.xlsx
+++ b/csdata/O/SI/O2+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/O/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8FC5D6-8C66-724B-8E6D-F1B8CA398E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="15140" windowHeight="8740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,39 +52,49 @@
   <si>
     <t>Atomic Data for Fusion, Volume 5: Collisions of Carbon and Oxygen Ions with Electrons, H, H2, and He Phaneuf 1987</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,58 +102,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -311,20 +348,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,284 +382,307 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>54.93</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0</v>
+        <f>0.1*B2</f>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="10">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4">
         <v>1.01</v>
       </c>
       <c r="C3" s="3">
-        <v>0.010100000000000001</v>
+        <f t="shared" ref="C3:C17" si="0">0.1*B3</f>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4">
         <v>1.53</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0153</v>
+        <f t="shared" si="0"/>
+        <v>0.15300000000000002</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4">
         <v>1.9000000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>0.019</v>
+        <f t="shared" si="0"/>
+        <v>0.19000000000000003</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4">
         <v>1.9000000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>0.019</v>
+        <f t="shared" si="0"/>
+        <v>0.19000000000000003</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B7" s="4">
         <v>1.5799999999999998</v>
       </c>
       <c r="C7" s="3">
-        <v>0.015799999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.158</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="B8" s="4">
         <v>1.18</v>
       </c>
       <c r="C8" s="3">
-        <v>0.011800000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.11799999999999999</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="4">
-        <v>0.9650000000000001</v>
+        <v>0.96500000000000008</v>
       </c>
       <c r="C9" s="3">
-        <v>0.00965</v>
-      </c>
-    </row>
-    <row r="10">
+        <f t="shared" si="0"/>
+        <v>9.6500000000000016E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="4">
-        <v>0.593</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C10" s="3">
-        <v>0.00593</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="0"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>4000.0</v>
+        <v>4000</v>
       </c>
       <c r="B11" s="4">
         <v>0.34199999999999997</v>
       </c>
       <c r="C11" s="3">
-        <v>0.00342</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" si="0"/>
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="B12" s="4">
         <v>0.20800000000000002</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0020800000000000003</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="0"/>
+        <v>2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="B13" s="4">
         <v>0.15</v>
       </c>
       <c r="C13" s="3">
-        <v>0.0014999999999999998</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="B14" s="4">
-        <v>0.0891</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>8.91E-4</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" si="0"/>
+        <v>8.9099999999999995E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="B15" s="4">
-        <v>0.0498</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="C15" s="3">
-        <v>4.98E-4</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" si="0"/>
+        <v>4.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>70000.0</v>
+        <v>70000</v>
       </c>
       <c r="B16" s="4">
-        <v>0.0309</v>
+        <v>3.09E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>3.09E-4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>100000.0</v>
+        <f t="shared" si="0"/>
+        <v>3.0900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>100000</v>
       </c>
       <c r="B17" s="4">
-        <v>0.022699999999999998</v>
+        <v>2.2699999999999998E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>2.27E-4</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="0"/>
+        <v>2.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="F19" s="3"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="5"/>
       <c r="F20" s="3"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="5"/>
       <c r="F21" s="3"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="5"/>
       <c r="F22" s="3"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="5"/>
       <c r="F23" s="3"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="5"/>
       <c r="F24" s="3"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="F25" s="3"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="F26" s="3"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="F27" s="3"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="3"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="3"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="3"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="3"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="3"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="3"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="3"/>
       <c r="I34" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>